--- a/artfynd/A 2282-2026 artfynd.xlsx
+++ b/artfynd/A 2282-2026 artfynd.xlsx
@@ -1065,7 +1065,7 @@
         <v>131292266</v>
       </c>
       <c r="B5" t="n">
-        <v>91806</v>
+        <v>91809</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
